--- a/INTLINE/data/134/DEUSTATIS/Foreign trade - total.xlsx
+++ b/INTLINE/data/134/DEUSTATIS/Foreign trade - total.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="48">
   <si>
     <t>Exports and imports (foreign trade): Germany, months</t>
   </si>
@@ -155,7 +155,7 @@
     <t>______________</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-04-01 / 03:45:45</t>
+    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-17 / 09:24:41</t>
   </si>
 </sst>
 </file>
@@ -7606,7 +7606,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="268" max="16384" style="7" width="12.7109375" collapsed="true"/>
+    <col min="271" max="16384" style="7" width="12.7109375" collapsed="true"/>
+    <col min="270" max="270" style="7" width="14.66796875" collapsed="true" customWidth="true"/>
+    <col min="269" max="269" style="7" width="14.66796875" collapsed="true" customWidth="true"/>
+    <col min="268" max="268" style="7" width="14.66796875" collapsed="true" customWidth="true"/>
     <col min="267" max="267" style="7" width="14.66796875" collapsed="true" customWidth="true"/>
     <col min="266" max="266" style="7" width="14.66796875" collapsed="true" customWidth="true"/>
     <col min="265" max="265" style="7" width="14.66796875" collapsed="true" customWidth="true"/>
@@ -8120,6 +8123,9 @@
     <col min="265" max="265" width="11.09375" customWidth="true"/>
     <col min="266" max="266" width="11.09375" customWidth="true"/>
     <col min="267" max="267" width="11.09375" customWidth="true"/>
+    <col min="268" max="268" width="11.09375" customWidth="true"/>
+    <col min="269" max="269" width="11.09375" customWidth="true"/>
+    <col min="270" max="270" width="11.09375" customWidth="true"/>
     <col min="1" max="1" width="14.859375" style="7" customWidth="true"/>
   </cols>
   <sheetData>
@@ -10702,22 +10708,22 @@
         <v>1.21412906E8</v>
       </c>
       <c r="JE8" t="n" s="10">
-        <v>1.25875298E8</v>
+        <v>1.26032462E8</v>
       </c>
       <c r="JF8" t="n" s="10">
-        <v>1.16930007E8</v>
+        <v>1.17015786E8</v>
       </c>
       <c r="JG8" t="n" s="10">
-        <v>1.09343492E8</v>
-      </c>
-      <c r="JH8" t="s" s="10">
-        <v>44</v>
-      </c>
-      <c r="JI8" t="s" s="10">
-        <v>44</v>
-      </c>
-      <c r="JJ8" t="s" s="10">
-        <v>44</v>
+        <v>1.09532239E8</v>
+      </c>
+      <c r="JH8" t="n" s="10">
+        <v>1.23408855E8</v>
+      </c>
+      <c r="JI8" t="n" s="10">
+        <v>1.37871437E8</v>
+      </c>
+      <c r="JJ8" t="n" s="10">
+        <v>1.22299568E8</v>
       </c>
       <c r="JK8" t="s" s="10">
         <v>44</v>
@@ -11538,22 +11544,22 @@
         <v>1.08809445E8</v>
       </c>
       <c r="JE9" t="n" s="10">
-        <v>1.14289503E8</v>
+        <v>1.14520098E8</v>
       </c>
       <c r="JF9" t="n" s="10">
-        <v>1.1031905E8</v>
+        <v>1.10622498E8</v>
       </c>
       <c r="JG9" t="n" s="10">
-        <v>1.06049701E8</v>
-      </c>
-      <c r="JH9" t="s" s="10">
-        <v>44</v>
-      </c>
-      <c r="JI9" t="s" s="10">
-        <v>44</v>
-      </c>
-      <c r="JJ9" t="s" s="10">
-        <v>44</v>
+        <v>1.06259333E8</v>
+      </c>
+      <c r="JH9" t="n" s="10">
+        <v>1.12425037E8</v>
+      </c>
+      <c r="JI9" t="n" s="10">
+        <v>1.30427372E8</v>
+      </c>
+      <c r="JJ9" t="n" s="10">
+        <v>1.21453954E8</v>
       </c>
       <c r="JK9" t="s" s="10">
         <v>44</v>
@@ -11647,7 +11653,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 01.04.22 / 03:45:55&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 17.06.22 / 09:24:51&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/INTLINE/data/134/DEUSTATIS/Foreign trade - total.xlsx
+++ b/INTLINE/data/134/DEUSTATIS/Foreign trade - total.xlsx
@@ -155,7 +155,7 @@
     <t>______________</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-17 / 09:24:41</t>
+    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-28 / 06:36:20</t>
   </si>
 </sst>
 </file>
@@ -11653,7 +11653,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 17.06.22 / 09:24:51&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 28.06.22 / 06:36:29&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>